--- a/Test Groups.xlsx
+++ b/Test Groups.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\muham\OneDrive\Desktop\Assignment2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\4142\Desktop\Assignments\Final Project SQA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4575"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
